--- a/Code/Results/Cases/Case_0_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004913493905661</v>
+        <v>1.045595554491117</v>
       </c>
       <c r="D2">
-        <v>1.01945464586499</v>
+        <v>1.055080504289956</v>
       </c>
       <c r="E2">
-        <v>1.010432882435711</v>
+        <v>1.043296372145855</v>
       </c>
       <c r="F2">
-        <v>1.025170369359763</v>
+        <v>1.062350228400208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045458562412363</v>
+        <v>1.03810074696228</v>
       </c>
       <c r="J2">
-        <v>1.026948229868792</v>
+        <v>1.050654447703432</v>
       </c>
       <c r="K2">
-        <v>1.030649440074492</v>
+        <v>1.057821945887476</v>
       </c>
       <c r="L2">
-        <v>1.021748759190472</v>
+        <v>1.046070637592752</v>
       </c>
       <c r="M2">
-        <v>1.036289833961497</v>
+        <v>1.065071813958662</v>
       </c>
       <c r="N2">
-        <v>1.012236357465468</v>
+        <v>1.020652616663084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011004504054691</v>
+        <v>1.046849795356579</v>
       </c>
       <c r="D3">
-        <v>1.025010950068838</v>
+        <v>1.056276311228005</v>
       </c>
       <c r="E3">
-        <v>1.01543026579443</v>
+        <v>1.044372528758724</v>
       </c>
       <c r="F3">
-        <v>1.031002436801039</v>
+        <v>1.063610679061898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046965800078456</v>
+        <v>1.038332419047667</v>
       </c>
       <c r="J3">
-        <v>1.031199605293686</v>
+        <v>1.051554910589394</v>
       </c>
       <c r="K3">
-        <v>1.035333508190494</v>
+        <v>1.05883014729701</v>
       </c>
       <c r="L3">
-        <v>1.025869448106701</v>
+        <v>1.046957106993125</v>
       </c>
       <c r="M3">
-        <v>1.04125342676307</v>
+        <v>1.066145942945814</v>
       </c>
       <c r="N3">
-        <v>1.013712160713938</v>
+        <v>1.020959516143102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014845761134822</v>
+        <v>1.047660940863848</v>
       </c>
       <c r="D4">
-        <v>1.028520250567651</v>
+        <v>1.057049939287781</v>
       </c>
       <c r="E4">
-        <v>1.018587959448016</v>
+        <v>1.045068800036137</v>
       </c>
       <c r="F4">
-        <v>1.034686248781982</v>
+        <v>1.06442619151544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04790396197602</v>
+        <v>1.038480674095221</v>
       </c>
       <c r="J4">
-        <v>1.033877186372611</v>
+        <v>1.052136639724226</v>
       </c>
       <c r="K4">
-        <v>1.038286228116747</v>
+        <v>1.059481811018407</v>
       </c>
       <c r="L4">
-        <v>1.028467103284925</v>
+        <v>1.047530044948852</v>
       </c>
       <c r="M4">
-        <v>1.044383316997555</v>
+        <v>1.066840332797695</v>
       </c>
       <c r="N4">
-        <v>1.014640817314965</v>
+        <v>1.021157592516638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016437792533402</v>
+        <v>1.04800184560818</v>
       </c>
       <c r="D5">
-        <v>1.029975904994232</v>
+        <v>1.057375141189229</v>
       </c>
       <c r="E5">
-        <v>1.019898085448985</v>
+        <v>1.045361496267711</v>
       </c>
       <c r="F5">
-        <v>1.036214376687168</v>
+        <v>1.064769015082173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048289769290825</v>
+        <v>1.038542605363985</v>
       </c>
       <c r="J5">
-        <v>1.034986029152062</v>
+        <v>1.052380977461959</v>
       </c>
       <c r="K5">
-        <v>1.039509644380186</v>
+        <v>1.05975560220407</v>
       </c>
       <c r="L5">
-        <v>1.029543413857181</v>
+        <v>1.047770749804343</v>
       </c>
       <c r="M5">
-        <v>1.045680372920594</v>
+        <v>1.067132102092301</v>
       </c>
       <c r="N5">
-        <v>1.0150251837069</v>
+        <v>1.021240742610326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016703793691262</v>
+        <v>1.048059079179011</v>
       </c>
       <c r="D6">
-        <v>1.030219189151274</v>
+        <v>1.057429742238235</v>
       </c>
       <c r="E6">
-        <v>1.020117065540158</v>
+        <v>1.045410640345805</v>
       </c>
       <c r="F6">
-        <v>1.036469778558463</v>
+        <v>1.064826575680627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048354052063433</v>
+        <v>1.038552980736324</v>
       </c>
       <c r="J6">
-        <v>1.035171243623091</v>
+        <v>1.05242198991862</v>
       </c>
       <c r="K6">
-        <v>1.039714033833171</v>
+        <v>1.059801563133359</v>
       </c>
       <c r="L6">
-        <v>1.029723227543502</v>
+        <v>1.047811155969569</v>
       </c>
       <c r="M6">
-        <v>1.045897078584068</v>
+        <v>1.067181082569035</v>
       </c>
       <c r="N6">
-        <v>1.015089373299384</v>
+        <v>1.021254696781332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014867122235069</v>
+        <v>1.047665496442611</v>
       </c>
       <c r="D7">
-        <v>1.028539777137018</v>
+        <v>1.057054284772214</v>
       </c>
       <c r="E7">
-        <v>1.018605532624563</v>
+        <v>1.045072711119345</v>
       </c>
       <c r="F7">
-        <v>1.034706747185113</v>
+        <v>1.064430772408314</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047909150557423</v>
+        <v>1.038481503176044</v>
       </c>
       <c r="J7">
-        <v>1.033892067894226</v>
+        <v>1.052139905444192</v>
       </c>
       <c r="K7">
-        <v>1.038302644794945</v>
+        <v>1.059485470088554</v>
       </c>
       <c r="L7">
-        <v>1.028481545963204</v>
+        <v>1.047533261879</v>
       </c>
       <c r="M7">
-        <v>1.044400720908691</v>
+        <v>1.066844232029043</v>
       </c>
       <c r="N7">
-        <v>1.014645976652387</v>
+        <v>1.021158704048014</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006993388011306</v>
+        <v>1.046019522146419</v>
       </c>
       <c r="D8">
-        <v>1.021350813609883</v>
+        <v>1.055484662791696</v>
       </c>
       <c r="E8">
-        <v>1.012138004240082</v>
+        <v>1.043660080544179</v>
       </c>
       <c r="F8">
-        <v>1.02716057580718</v>
+        <v>1.062776222138476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045975808362262</v>
+        <v>1.038179383990077</v>
       </c>
       <c r="J8">
-        <v>1.028400653753891</v>
+        <v>1.050958956989145</v>
       </c>
       <c r="K8">
-        <v>1.03224913719737</v>
+        <v>1.058162820331572</v>
       </c>
       <c r="L8">
-        <v>1.023156030883984</v>
+        <v>1.046370363048312</v>
       </c>
       <c r="M8">
-        <v>1.037984790992547</v>
+        <v>1.06543495521349</v>
       </c>
       <c r="N8">
-        <v>1.012740712306801</v>
+        <v>1.020756440246447</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9922983294704506</v>
+        <v>1.043115676312219</v>
       </c>
       <c r="D9">
-        <v>1.007978869588885</v>
+        <v>1.052717636453305</v>
       </c>
       <c r="E9">
-        <v>1.000120150023562</v>
+        <v>1.041170210192791</v>
       </c>
       <c r="F9">
-        <v>1.013126748361466</v>
+        <v>1.059859959860765</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042270516371833</v>
+        <v>1.037634338346701</v>
       </c>
       <c r="J9">
-        <v>1.018126015977868</v>
+        <v>1.048870776305333</v>
       </c>
       <c r="K9">
-        <v>1.020943808135511</v>
+        <v>1.05582662651401</v>
       </c>
       <c r="L9">
-        <v>1.013211278178041</v>
+        <v>1.044316013812232</v>
       </c>
       <c r="M9">
-        <v>1.026010383706708</v>
+        <v>1.062946618683773</v>
       </c>
       <c r="N9">
-        <v>1.009169780679045</v>
+        <v>1.020043689022816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9818664388683247</v>
+        <v>1.041177305592098</v>
       </c>
       <c r="D10">
-        <v>0.9985213090401702</v>
+        <v>1.050872053025046</v>
       </c>
       <c r="E10">
-        <v>0.9916299967565143</v>
+        <v>1.039509772223312</v>
       </c>
       <c r="F10">
-        <v>1.003202489807086</v>
+        <v>1.057915157215785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039577874080823</v>
+        <v>1.037262426784607</v>
       </c>
       <c r="J10">
-        <v>1.010818457300896</v>
+        <v>1.0474737135106</v>
       </c>
       <c r="K10">
-        <v>1.012917313132635</v>
+        <v>1.054265343676362</v>
       </c>
       <c r="L10">
-        <v>1.006152036740932</v>
+        <v>1.042942877486504</v>
       </c>
       <c r="M10">
-        <v>1.01751416205415</v>
+        <v>1.061284240417465</v>
       </c>
       <c r="N10">
-        <v>1.006626711287947</v>
+        <v>1.019565863734345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9771775220713569</v>
+        <v>1.040337344879572</v>
       </c>
       <c r="D11">
-        <v>0.9942797589043935</v>
+        <v>1.050072653175449</v>
       </c>
       <c r="E11">
-        <v>0.9878249705593355</v>
+        <v>1.038790637344924</v>
       </c>
       <c r="F11">
-        <v>0.9987519021347395</v>
+        <v>1.057072856488722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038353675174789</v>
+        <v>1.037099351091667</v>
       </c>
       <c r="J11">
-        <v>1.00753155946604</v>
+        <v>1.046867574141601</v>
       </c>
       <c r="K11">
-        <v>1.00931036290304</v>
+        <v>1.053588359244361</v>
       </c>
       <c r="L11">
-        <v>1.002980201438515</v>
+        <v>1.042347426279788</v>
       </c>
       <c r="M11">
-        <v>1.013697394198697</v>
+        <v>1.06056355803543</v>
       </c>
       <c r="N11">
-        <v>1.005482252008558</v>
+        <v>1.01935832310099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9754080106820634</v>
+        <v>1.040025247532708</v>
       </c>
       <c r="D12">
-        <v>0.9926805948577138</v>
+        <v>1.049775680350255</v>
       </c>
       <c r="E12">
-        <v>0.9863908189155931</v>
+        <v>1.038523493416393</v>
       </c>
       <c r="F12">
-        <v>0.9970739598239129</v>
+        <v>1.056759957442644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037889674871797</v>
+        <v>1.037038471082095</v>
       </c>
       <c r="J12">
-        <v>1.006290886388436</v>
+        <v>1.046642244291046</v>
       </c>
       <c r="K12">
-        <v>1.007949379550499</v>
+        <v>1.053336753756346</v>
       </c>
       <c r="L12">
-        <v>1.001783477874599</v>
+        <v>1.042126115943918</v>
       </c>
       <c r="M12">
-        <v>1.012257433671006</v>
+        <v>1.06029573262409</v>
       </c>
       <c r="N12">
-        <v>1.005050191103069</v>
+        <v>1.019281136635381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9757888714354351</v>
+        <v>1.040092197986517</v>
       </c>
       <c r="D13">
-        <v>0.9930247205484117</v>
+        <v>1.049839383886475</v>
       </c>
       <c r="E13">
-        <v>0.9866994153257742</v>
+        <v>1.038580797869761</v>
       </c>
       <c r="F13">
-        <v>0.9974350364699357</v>
+        <v>1.056827076799758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037989633380524</v>
+        <v>1.037051543927701</v>
       </c>
       <c r="J13">
-        <v>1.006557932796194</v>
+        <v>1.046690586610618</v>
       </c>
       <c r="K13">
-        <v>1.0082422995264</v>
+        <v>1.053390730510591</v>
       </c>
       <c r="L13">
-        <v>1.002041040863192</v>
+        <v>1.042173593822765</v>
       </c>
       <c r="M13">
-        <v>1.012567342965705</v>
+        <v>1.060353188091361</v>
       </c>
       <c r="N13">
-        <v>1.00514319227561</v>
+        <v>1.01929769777701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9770318340564699</v>
+        <v>1.040311548845267</v>
       </c>
       <c r="D14">
-        <v>0.9941480645196281</v>
+        <v>1.050048106142528</v>
       </c>
       <c r="E14">
-        <v>0.9877068562941206</v>
+        <v>1.038768555670655</v>
       </c>
       <c r="F14">
-        <v>0.9986137195538103</v>
+        <v>1.057046992805408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038315513261643</v>
+        <v>1.037094324985893</v>
       </c>
       <c r="J14">
-        <v>1.007429416651838</v>
+        <v>1.046848952045194</v>
       </c>
       <c r="K14">
-        <v>1.009198305047623</v>
+        <v>1.05356756439343</v>
       </c>
       <c r="L14">
-        <v>1.002881666339749</v>
+        <v>1.042329135427685</v>
       </c>
       <c r="M14">
-        <v>1.013578829782991</v>
+        <v>1.060541422207956</v>
       </c>
       <c r="N14">
-        <v>1.005446682441969</v>
+        <v>1.019351944818513</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9777939113626266</v>
+        <v>1.040446684990216</v>
       </c>
       <c r="D15">
-        <v>0.9948370052112391</v>
+        <v>1.050176701419056</v>
       </c>
       <c r="E15">
-        <v>0.9883247723111139</v>
+        <v>1.038884236046218</v>
       </c>
       <c r="F15">
-        <v>0.9993366036690544</v>
+        <v>1.057182486117235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038515052555553</v>
+        <v>1.037120643183394</v>
       </c>
       <c r="J15">
-        <v>1.00796370404858</v>
+        <v>1.046946501942983</v>
       </c>
       <c r="K15">
-        <v>1.00978447612191</v>
+        <v>1.053676498523548</v>
       </c>
       <c r="L15">
-        <v>1.00339710368999</v>
+        <v>1.04242495203014</v>
       </c>
       <c r="M15">
-        <v>1.014199044276909</v>
+        <v>1.060657381910399</v>
       </c>
       <c r="N15">
-        <v>1.0056327364316</v>
+        <v>1.019385355387904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9821738384995027</v>
+        <v>1.041233037385202</v>
       </c>
       <c r="D16">
-        <v>0.9987995839644189</v>
+        <v>1.050925101073775</v>
       </c>
       <c r="E16">
-        <v>0.9918796906617252</v>
+        <v>1.039557495412703</v>
       </c>
       <c r="F16">
-        <v>1.003494484069244</v>
+        <v>1.057971053737793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039657848945301</v>
+        <v>1.037273206642061</v>
       </c>
       <c r="J16">
-        <v>1.011033901739318</v>
+        <v>1.047513915479638</v>
       </c>
       <c r="K16">
-        <v>1.013153804583924</v>
+        <v>1.054310252930595</v>
       </c>
       <c r="L16">
-        <v>1.006360010127082</v>
+        <v>1.042982377041807</v>
       </c>
       <c r="M16">
-        <v>1.017764436719126</v>
+        <v>1.061332051372473</v>
       </c>
       <c r="N16">
-        <v>1.00670171546786</v>
+        <v>1.019579624004819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9848738814799443</v>
+        <v>1.041726123506864</v>
       </c>
       <c r="D17">
-        <v>1.001244889281961</v>
+        <v>1.051394483655177</v>
       </c>
       <c r="E17">
-        <v>0.9940741491269334</v>
+        <v>1.039979770486008</v>
       </c>
       <c r="F17">
-        <v>1.006060375993132</v>
+        <v>1.058465649004185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040358741231894</v>
+        <v>1.03736836026206</v>
       </c>
       <c r="J17">
-        <v>1.012926005873327</v>
+        <v>1.047869515707728</v>
       </c>
       <c r="K17">
-        <v>1.015231126231249</v>
+        <v>1.054707537396634</v>
       </c>
       <c r="L17">
-        <v>1.008186883923265</v>
+        <v>1.043331799646544</v>
       </c>
       <c r="M17">
-        <v>1.019962972769826</v>
+        <v>1.061755021302886</v>
       </c>
       <c r="N17">
-        <v>1.007360360840107</v>
+        <v>1.019701312031772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.98643233804514</v>
+        <v>1.042013671415293</v>
       </c>
       <c r="D18">
-        <v>1.002657194145822</v>
+        <v>1.051668242622528</v>
       </c>
       <c r="E18">
-        <v>0.9953418243373365</v>
+        <v>1.040226061645347</v>
       </c>
       <c r="F18">
-        <v>1.007542352374891</v>
+        <v>1.058754120070272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04076197602652</v>
+        <v>1.03742366540195</v>
       </c>
       <c r="J18">
-        <v>1.014017899235291</v>
+        <v>1.048076815477482</v>
       </c>
       <c r="K18">
-        <v>1.016430218050666</v>
+        <v>1.054939176294271</v>
       </c>
       <c r="L18">
-        <v>1.009241451330072</v>
+        <v>1.043535527731662</v>
       </c>
       <c r="M18">
-        <v>1.021232152741265</v>
+        <v>1.06200164953941</v>
       </c>
       <c r="N18">
-        <v>1.007740393303465</v>
+        <v>1.019772228974212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9869610022176246</v>
+        <v>1.042111707595738</v>
       </c>
       <c r="D19">
-        <v>1.003136427023236</v>
+        <v>1.051761583370149</v>
       </c>
       <c r="E19">
-        <v>0.9957720217729397</v>
+        <v>1.040310038125666</v>
       </c>
       <c r="F19">
-        <v>1.008045231227583</v>
+        <v>1.058852478281186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040898536633553</v>
+        <v>1.03744248973846</v>
       </c>
       <c r="J19">
-        <v>1.014388254095191</v>
+        <v>1.048147479759175</v>
       </c>
       <c r="K19">
-        <v>1.016836986337943</v>
+        <v>1.055018143906317</v>
       </c>
       <c r="L19">
-        <v>1.009599199216641</v>
+        <v>1.043604979518194</v>
       </c>
       <c r="M19">
-        <v>1.021662717310276</v>
+        <v>1.062085729394962</v>
       </c>
       <c r="N19">
-        <v>1.007869284652167</v>
+        <v>1.019796399384559</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.984585906093379</v>
+        <v>1.041673226355783</v>
       </c>
       <c r="D20">
-        <v>1.000983990845931</v>
+        <v>1.051344125843449</v>
       </c>
       <c r="E20">
-        <v>0.9938399883788672</v>
+        <v>1.039934465908078</v>
       </c>
       <c r="F20">
-        <v>1.005786609103932</v>
+        <v>1.05841258549433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040284123304936</v>
+        <v>1.037358171494127</v>
       </c>
       <c r="J20">
-        <v>1.012724224489801</v>
+        <v>1.047831375165456</v>
       </c>
       <c r="K20">
-        <v>1.015009560000072</v>
+        <v>1.054664921902527</v>
       </c>
       <c r="L20">
-        <v>1.007992025945918</v>
+        <v>1.043294318632836</v>
       </c>
       <c r="M20">
-        <v>1.019728465435251</v>
+        <v>1.061709649232788</v>
       </c>
       <c r="N20">
-        <v>1.007290126214471</v>
+        <v>1.019688262437033</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.976666598334794</v>
+        <v>1.040246958231887</v>
       </c>
       <c r="D21">
-        <v>0.9938179352479215</v>
+        <v>1.049986643768735</v>
       </c>
       <c r="E21">
-        <v>0.9874107765190344</v>
+        <v>1.038713266390503</v>
       </c>
       <c r="F21">
-        <v>0.9982673263020168</v>
+        <v>1.056982233902398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038219810365318</v>
+        <v>1.037081735494688</v>
       </c>
       <c r="J21">
-        <v>1.007173343674072</v>
+        <v>1.046802322432367</v>
       </c>
       <c r="K21">
-        <v>1.008917382956468</v>
+        <v>1.053515495197492</v>
       </c>
       <c r="L21">
-        <v>1.002634646314341</v>
+        <v>1.042283335995488</v>
       </c>
       <c r="M21">
-        <v>1.01328159923877</v>
+        <v>1.060485995612565</v>
       </c>
       <c r="N21">
-        <v>1.005357508094554</v>
+        <v>1.019335973089356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9715251863082195</v>
+        <v>1.039349635056609</v>
       </c>
       <c r="D22">
-        <v>0.9891744837170813</v>
+        <v>1.049132907466586</v>
       </c>
       <c r="E22">
-        <v>0.9832473275242771</v>
+        <v>1.037945302880993</v>
       </c>
       <c r="F22">
-        <v>0.9933951847592309</v>
+        <v>1.056082734052319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036867913301835</v>
+        <v>1.036906155954492</v>
       </c>
       <c r="J22">
-        <v>1.003568116118842</v>
+        <v>1.046154258030346</v>
       </c>
       <c r="K22">
-        <v>1.004963490480854</v>
+        <v>1.052791974611749</v>
       </c>
       <c r="L22">
-        <v>0.9991581270923707</v>
+        <v>1.041646919212635</v>
       </c>
       <c r="M22">
-        <v>1.009098629730102</v>
+        <v>1.059715871746943</v>
       </c>
       <c r="N22">
-        <v>1.004101879283674</v>
+        <v>1.019113915395933</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9742668556400529</v>
+        <v>1.039825378381005</v>
       </c>
       <c r="D23">
-        <v>0.9916497384860434</v>
+        <v>1.049585512219907</v>
       </c>
       <c r="E23">
-        <v>0.985466459494133</v>
+        <v>1.038352429475556</v>
       </c>
       <c r="F23">
-        <v>0.9959923299213894</v>
+        <v>1.056559594025403</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037589885801957</v>
+        <v>1.036999402283237</v>
       </c>
       <c r="J23">
-        <v>1.005490717248207</v>
+        <v>1.046497910238512</v>
       </c>
       <c r="K23">
-        <v>1.007071756351464</v>
+        <v>1.053175606048075</v>
       </c>
       <c r="L23">
-        <v>1.001011801422447</v>
+        <v>1.04198436959886</v>
       </c>
       <c r="M23">
-        <v>1.011328936653706</v>
+        <v>1.060124202240098</v>
       </c>
       <c r="N23">
-        <v>1.004771516092643</v>
+        <v>1.019231685610553</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.984716080407498</v>
+        <v>1.041697128489467</v>
       </c>
       <c r="D24">
-        <v>1.001101922760555</v>
+        <v>1.051366880444946</v>
       </c>
       <c r="E24">
-        <v>0.9939458334921102</v>
+        <v>1.039954937142327</v>
       </c>
       <c r="F24">
-        <v>1.005910357765988</v>
+        <v>1.058436562665902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040317857151042</v>
+        <v>1.037362775966514</v>
       </c>
       <c r="J24">
-        <v>1.012815436989105</v>
+        <v>1.047848609592644</v>
       </c>
       <c r="K24">
-        <v>1.015109714994811</v>
+        <v>1.054684178289294</v>
       </c>
       <c r="L24">
-        <v>1.008080107831197</v>
+        <v>1.043311254949775</v>
       </c>
       <c r="M24">
-        <v>1.019834469849858</v>
+        <v>1.061730151174594</v>
       </c>
       <c r="N24">
-        <v>1.007321874992008</v>
+        <v>1.019694159177608</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9962027187578794</v>
+        <v>1.043866813676604</v>
       </c>
       <c r="D25">
-        <v>1.011526051850106</v>
+        <v>1.053433128397861</v>
       </c>
       <c r="E25">
-        <v>1.003306578242042</v>
+        <v>1.041813986601428</v>
       </c>
       <c r="F25">
-        <v>1.016849241281694</v>
+        <v>1.060613984301423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043265915719999</v>
+        <v>1.037776750314075</v>
       </c>
       <c r="J25">
-        <v>1.020858555846046</v>
+        <v>1.04941148464994</v>
       </c>
       <c r="K25">
-        <v>1.023948037352472</v>
+        <v>1.056431253748177</v>
       </c>
       <c r="L25">
-        <v>1.015853779788935</v>
+        <v>1.044847734810727</v>
       </c>
       <c r="M25">
-        <v>1.029191506332809</v>
+        <v>1.063590519266368</v>
       </c>
       <c r="N25">
-        <v>1.010120100676748</v>
+        <v>1.020228418669272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045595554491117</v>
+        <v>1.00491349390566</v>
       </c>
       <c r="D2">
-        <v>1.055080504289956</v>
+        <v>1.019454645864989</v>
       </c>
       <c r="E2">
-        <v>1.043296372145855</v>
+        <v>1.01043288243571</v>
       </c>
       <c r="F2">
-        <v>1.062350228400208</v>
+        <v>1.025170369359763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03810074696228</v>
+        <v>1.045458562412363</v>
       </c>
       <c r="J2">
-        <v>1.050654447703432</v>
+        <v>1.026948229868792</v>
       </c>
       <c r="K2">
-        <v>1.057821945887476</v>
+        <v>1.030649440074491</v>
       </c>
       <c r="L2">
-        <v>1.046070637592752</v>
+        <v>1.021748759190471</v>
       </c>
       <c r="M2">
-        <v>1.065071813958662</v>
+        <v>1.036289833961497</v>
       </c>
       <c r="N2">
-        <v>1.020652616663084</v>
+        <v>1.012236357465468</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046849795356579</v>
+        <v>1.01100450405469</v>
       </c>
       <c r="D3">
-        <v>1.056276311228005</v>
+        <v>1.025010950068837</v>
       </c>
       <c r="E3">
-        <v>1.044372528758724</v>
+        <v>1.015430265794429</v>
       </c>
       <c r="F3">
-        <v>1.063610679061898</v>
+        <v>1.031002436801039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038332419047667</v>
+        <v>1.046965800078456</v>
       </c>
       <c r="J3">
-        <v>1.051554910589394</v>
+        <v>1.031199605293685</v>
       </c>
       <c r="K3">
-        <v>1.05883014729701</v>
+        <v>1.035333508190493</v>
       </c>
       <c r="L3">
-        <v>1.046957106993125</v>
+        <v>1.0258694481067</v>
       </c>
       <c r="M3">
-        <v>1.066145942945814</v>
+        <v>1.041253426763069</v>
       </c>
       <c r="N3">
-        <v>1.020959516143102</v>
+        <v>1.013712160713937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047660940863848</v>
+        <v>1.014845761134821</v>
       </c>
       <c r="D4">
-        <v>1.057049939287781</v>
+        <v>1.028520250567651</v>
       </c>
       <c r="E4">
-        <v>1.045068800036137</v>
+        <v>1.018587959448015</v>
       </c>
       <c r="F4">
-        <v>1.06442619151544</v>
+        <v>1.034686248781981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038480674095221</v>
+        <v>1.04790396197602</v>
       </c>
       <c r="J4">
-        <v>1.052136639724226</v>
+        <v>1.033877186372611</v>
       </c>
       <c r="K4">
-        <v>1.059481811018407</v>
+        <v>1.038286228116746</v>
       </c>
       <c r="L4">
-        <v>1.047530044948852</v>
+        <v>1.028467103284924</v>
       </c>
       <c r="M4">
-        <v>1.066840332797695</v>
+        <v>1.044383316997554</v>
       </c>
       <c r="N4">
-        <v>1.021157592516638</v>
+        <v>1.014640817314964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04800184560818</v>
+        <v>1.016437792533401</v>
       </c>
       <c r="D5">
-        <v>1.057375141189229</v>
+        <v>1.029975904994231</v>
       </c>
       <c r="E5">
-        <v>1.045361496267711</v>
+        <v>1.019898085448983</v>
       </c>
       <c r="F5">
-        <v>1.064769015082173</v>
+        <v>1.036214376687167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038542605363985</v>
+        <v>1.048289769290825</v>
       </c>
       <c r="J5">
-        <v>1.052380977461959</v>
+        <v>1.034986029152061</v>
       </c>
       <c r="K5">
-        <v>1.05975560220407</v>
+        <v>1.039509644380185</v>
       </c>
       <c r="L5">
-        <v>1.047770749804343</v>
+        <v>1.02954341385718</v>
       </c>
       <c r="M5">
-        <v>1.067132102092301</v>
+        <v>1.045680372920592</v>
       </c>
       <c r="N5">
-        <v>1.021240742610326</v>
+        <v>1.015025183706899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048059079179011</v>
+        <v>1.016703793691261</v>
       </c>
       <c r="D6">
-        <v>1.057429742238235</v>
+        <v>1.030219189151273</v>
       </c>
       <c r="E6">
-        <v>1.045410640345805</v>
+        <v>1.020117065540157</v>
       </c>
       <c r="F6">
-        <v>1.064826575680627</v>
+        <v>1.036469778558463</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038552980736324</v>
+        <v>1.048354052063432</v>
       </c>
       <c r="J6">
-        <v>1.05242198991862</v>
+        <v>1.03517124362309</v>
       </c>
       <c r="K6">
-        <v>1.059801563133359</v>
+        <v>1.03971403383317</v>
       </c>
       <c r="L6">
-        <v>1.047811155969569</v>
+        <v>1.0297232275435</v>
       </c>
       <c r="M6">
-        <v>1.067181082569035</v>
+        <v>1.045897078584068</v>
       </c>
       <c r="N6">
-        <v>1.021254696781332</v>
+        <v>1.015089373299384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047665496442611</v>
+        <v>1.014867122235068</v>
       </c>
       <c r="D7">
-        <v>1.057054284772214</v>
+        <v>1.028539777137017</v>
       </c>
       <c r="E7">
-        <v>1.045072711119345</v>
+        <v>1.018605532624562</v>
       </c>
       <c r="F7">
-        <v>1.064430772408314</v>
+        <v>1.034706747185111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038481503176044</v>
+        <v>1.047909150557423</v>
       </c>
       <c r="J7">
-        <v>1.052139905444192</v>
+        <v>1.033892067894225</v>
       </c>
       <c r="K7">
-        <v>1.059485470088554</v>
+        <v>1.038302644794944</v>
       </c>
       <c r="L7">
-        <v>1.047533261879</v>
+        <v>1.028481545963202</v>
       </c>
       <c r="M7">
-        <v>1.066844232029043</v>
+        <v>1.04440072090869</v>
       </c>
       <c r="N7">
-        <v>1.021158704048014</v>
+        <v>1.014645976652386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046019522146419</v>
+        <v>1.006993388011307</v>
       </c>
       <c r="D8">
-        <v>1.055484662791696</v>
+        <v>1.021350813609884</v>
       </c>
       <c r="E8">
-        <v>1.043660080544179</v>
+        <v>1.012138004240083</v>
       </c>
       <c r="F8">
-        <v>1.062776222138476</v>
+        <v>1.027160575807181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038179383990077</v>
+        <v>1.045975808362262</v>
       </c>
       <c r="J8">
-        <v>1.050958956989145</v>
+        <v>1.028400653753891</v>
       </c>
       <c r="K8">
-        <v>1.058162820331572</v>
+        <v>1.032249137197371</v>
       </c>
       <c r="L8">
-        <v>1.046370363048312</v>
+        <v>1.023156030883986</v>
       </c>
       <c r="M8">
-        <v>1.06543495521349</v>
+        <v>1.037984790992548</v>
       </c>
       <c r="N8">
-        <v>1.020756440246447</v>
+        <v>1.012740712306802</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043115676312219</v>
+        <v>0.9922983294704502</v>
       </c>
       <c r="D9">
-        <v>1.052717636453305</v>
+        <v>1.007978869588885</v>
       </c>
       <c r="E9">
-        <v>1.041170210192791</v>
+        <v>1.000120150023561</v>
       </c>
       <c r="F9">
-        <v>1.059859959860765</v>
+        <v>1.013126748361466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037634338346701</v>
+        <v>1.042270516371832</v>
       </c>
       <c r="J9">
-        <v>1.048870776305333</v>
+        <v>1.018126015977868</v>
       </c>
       <c r="K9">
-        <v>1.05582662651401</v>
+        <v>1.02094380813551</v>
       </c>
       <c r="L9">
-        <v>1.044316013812232</v>
+        <v>1.013211278178041</v>
       </c>
       <c r="M9">
-        <v>1.062946618683773</v>
+        <v>1.026010383706707</v>
       </c>
       <c r="N9">
-        <v>1.020043689022816</v>
+        <v>1.009169780679045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041177305592098</v>
+        <v>0.9818664388683257</v>
       </c>
       <c r="D10">
-        <v>1.050872053025046</v>
+        <v>0.9985213090401713</v>
       </c>
       <c r="E10">
-        <v>1.039509772223312</v>
+        <v>0.9916299967565153</v>
       </c>
       <c r="F10">
-        <v>1.057915157215785</v>
+        <v>1.003202489807087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037262426784607</v>
+        <v>1.039577874080823</v>
       </c>
       <c r="J10">
-        <v>1.0474737135106</v>
+        <v>1.010818457300897</v>
       </c>
       <c r="K10">
-        <v>1.054265343676362</v>
+        <v>1.012917313132636</v>
       </c>
       <c r="L10">
-        <v>1.042942877486504</v>
+        <v>1.006152036740932</v>
       </c>
       <c r="M10">
-        <v>1.061284240417465</v>
+        <v>1.017514162054151</v>
       </c>
       <c r="N10">
-        <v>1.019565863734345</v>
+        <v>1.006626711287948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040337344879572</v>
+        <v>0.9771775220713566</v>
       </c>
       <c r="D11">
-        <v>1.050072653175449</v>
+        <v>0.9942797589043934</v>
       </c>
       <c r="E11">
-        <v>1.038790637344924</v>
+        <v>0.987824970559335</v>
       </c>
       <c r="F11">
-        <v>1.057072856488722</v>
+        <v>0.9987519021347391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037099351091667</v>
+        <v>1.038353675174789</v>
       </c>
       <c r="J11">
-        <v>1.046867574141601</v>
+        <v>1.007531559466039</v>
       </c>
       <c r="K11">
-        <v>1.053588359244361</v>
+        <v>1.00931036290304</v>
       </c>
       <c r="L11">
-        <v>1.042347426279788</v>
+        <v>1.002980201438515</v>
       </c>
       <c r="M11">
-        <v>1.06056355803543</v>
+        <v>1.013697394198696</v>
       </c>
       <c r="N11">
-        <v>1.01935832310099</v>
+        <v>1.005482252008558</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040025247532708</v>
+        <v>0.9754080106820645</v>
       </c>
       <c r="D12">
-        <v>1.049775680350255</v>
+        <v>0.9926805948577152</v>
       </c>
       <c r="E12">
-        <v>1.038523493416393</v>
+        <v>0.9863908189155943</v>
       </c>
       <c r="F12">
-        <v>1.056759957442644</v>
+        <v>0.9970739598239146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037038471082095</v>
+        <v>1.037889674871798</v>
       </c>
       <c r="J12">
-        <v>1.046642244291046</v>
+        <v>1.006290886388437</v>
       </c>
       <c r="K12">
-        <v>1.053336753756346</v>
+        <v>1.007949379550501</v>
       </c>
       <c r="L12">
-        <v>1.042126115943918</v>
+        <v>1.0017834778746</v>
       </c>
       <c r="M12">
-        <v>1.06029573262409</v>
+        <v>1.012257433671007</v>
       </c>
       <c r="N12">
-        <v>1.019281136635381</v>
+        <v>1.005050191103069</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040092197986517</v>
+        <v>0.9757888714354347</v>
       </c>
       <c r="D13">
-        <v>1.049839383886475</v>
+        <v>0.9930247205484108</v>
       </c>
       <c r="E13">
-        <v>1.038580797869761</v>
+        <v>0.9866994153257738</v>
       </c>
       <c r="F13">
-        <v>1.056827076799758</v>
+        <v>0.997435036469935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037051543927701</v>
+        <v>1.037989633380524</v>
       </c>
       <c r="J13">
-        <v>1.046690586610618</v>
+        <v>1.006557932796193</v>
       </c>
       <c r="K13">
-        <v>1.053390730510591</v>
+        <v>1.008242299526399</v>
       </c>
       <c r="L13">
-        <v>1.042173593822765</v>
+        <v>1.002041040863192</v>
       </c>
       <c r="M13">
-        <v>1.060353188091361</v>
+        <v>1.012567342965705</v>
       </c>
       <c r="N13">
-        <v>1.01929769777701</v>
+        <v>1.00514319227561</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040311548845267</v>
+        <v>0.9770318340564704</v>
       </c>
       <c r="D14">
-        <v>1.050048106142528</v>
+        <v>0.9941480645196287</v>
       </c>
       <c r="E14">
-        <v>1.038768555670655</v>
+        <v>0.9877068562941212</v>
       </c>
       <c r="F14">
-        <v>1.057046992805408</v>
+        <v>0.9986137195538112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037094324985893</v>
+        <v>1.038315513261643</v>
       </c>
       <c r="J14">
-        <v>1.046848952045194</v>
+        <v>1.007429416651839</v>
       </c>
       <c r="K14">
-        <v>1.05356756439343</v>
+        <v>1.009198305047623</v>
       </c>
       <c r="L14">
-        <v>1.042329135427685</v>
+        <v>1.00288166633975</v>
       </c>
       <c r="M14">
-        <v>1.060541422207956</v>
+        <v>1.013578829782992</v>
       </c>
       <c r="N14">
-        <v>1.019351944818513</v>
+        <v>1.005446682441969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040446684990216</v>
+        <v>0.9777939113626275</v>
       </c>
       <c r="D15">
-        <v>1.050176701419056</v>
+        <v>0.9948370052112404</v>
       </c>
       <c r="E15">
-        <v>1.038884236046218</v>
+        <v>0.9883247723111153</v>
       </c>
       <c r="F15">
-        <v>1.057182486117235</v>
+        <v>0.9993366036690557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037120643183394</v>
+        <v>1.038515052555553</v>
       </c>
       <c r="J15">
-        <v>1.046946501942983</v>
+        <v>1.007963704048581</v>
       </c>
       <c r="K15">
-        <v>1.053676498523548</v>
+        <v>1.009784476121911</v>
       </c>
       <c r="L15">
-        <v>1.04242495203014</v>
+        <v>1.003397103689991</v>
       </c>
       <c r="M15">
-        <v>1.060657381910399</v>
+        <v>1.01419904427691</v>
       </c>
       <c r="N15">
-        <v>1.019385355387904</v>
+        <v>1.0056327364316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041233037385202</v>
+        <v>0.9821738384995021</v>
       </c>
       <c r="D16">
-        <v>1.050925101073775</v>
+        <v>0.9987995839644186</v>
       </c>
       <c r="E16">
-        <v>1.039557495412703</v>
+        <v>0.9918796906617249</v>
       </c>
       <c r="F16">
-        <v>1.057971053737793</v>
+        <v>1.003494484069244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037273206642061</v>
+        <v>1.039657848945301</v>
       </c>
       <c r="J16">
-        <v>1.047513915479638</v>
+        <v>1.011033901739318</v>
       </c>
       <c r="K16">
-        <v>1.054310252930595</v>
+        <v>1.013153804583924</v>
       </c>
       <c r="L16">
-        <v>1.042982377041807</v>
+        <v>1.006360010127081</v>
       </c>
       <c r="M16">
-        <v>1.061332051372473</v>
+        <v>1.017764436719126</v>
       </c>
       <c r="N16">
-        <v>1.019579624004819</v>
+        <v>1.006701715467859</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041726123506864</v>
+        <v>0.9848738814799444</v>
       </c>
       <c r="D17">
-        <v>1.051394483655177</v>
+        <v>1.001244889281961</v>
       </c>
       <c r="E17">
-        <v>1.039979770486008</v>
+        <v>0.9940741491269336</v>
       </c>
       <c r="F17">
-        <v>1.058465649004185</v>
+        <v>1.006060375993132</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03736836026206</v>
+        <v>1.040358741231895</v>
       </c>
       <c r="J17">
-        <v>1.047869515707728</v>
+        <v>1.012926005873327</v>
       </c>
       <c r="K17">
-        <v>1.054707537396634</v>
+        <v>1.015231126231249</v>
       </c>
       <c r="L17">
-        <v>1.043331799646544</v>
+        <v>1.008186883923266</v>
       </c>
       <c r="M17">
-        <v>1.061755021302886</v>
+        <v>1.019962972769826</v>
       </c>
       <c r="N17">
-        <v>1.019701312031772</v>
+        <v>1.007360360840107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042013671415293</v>
+        <v>0.9864323380451392</v>
       </c>
       <c r="D18">
-        <v>1.051668242622528</v>
+        <v>1.002657194145821</v>
       </c>
       <c r="E18">
-        <v>1.040226061645347</v>
+        <v>0.995341824337336</v>
       </c>
       <c r="F18">
-        <v>1.058754120070272</v>
+        <v>1.007542352374891</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03742366540195</v>
+        <v>1.04076197602652</v>
       </c>
       <c r="J18">
-        <v>1.048076815477482</v>
+        <v>1.01401789923529</v>
       </c>
       <c r="K18">
-        <v>1.054939176294271</v>
+        <v>1.016430218050665</v>
       </c>
       <c r="L18">
-        <v>1.043535527731662</v>
+        <v>1.009241451330071</v>
       </c>
       <c r="M18">
-        <v>1.06200164953941</v>
+        <v>1.021232152741264</v>
       </c>
       <c r="N18">
-        <v>1.019772228974212</v>
+        <v>1.007740393303465</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042111707595738</v>
+        <v>0.9869610022176244</v>
       </c>
       <c r="D19">
-        <v>1.051761583370149</v>
+        <v>1.003136427023236</v>
       </c>
       <c r="E19">
-        <v>1.040310038125666</v>
+        <v>0.9957720217729396</v>
       </c>
       <c r="F19">
-        <v>1.058852478281186</v>
+        <v>1.008045231227582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03744248973846</v>
+        <v>1.040898536633553</v>
       </c>
       <c r="J19">
-        <v>1.048147479759175</v>
+        <v>1.014388254095191</v>
       </c>
       <c r="K19">
-        <v>1.055018143906317</v>
+        <v>1.016836986337943</v>
       </c>
       <c r="L19">
-        <v>1.043604979518194</v>
+        <v>1.009599199216641</v>
       </c>
       <c r="M19">
-        <v>1.062085729394962</v>
+        <v>1.021662717310276</v>
       </c>
       <c r="N19">
-        <v>1.019796399384559</v>
+        <v>1.007869284652167</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041673226355783</v>
+        <v>0.9845859060933801</v>
       </c>
       <c r="D20">
-        <v>1.051344125843449</v>
+        <v>1.000983990845932</v>
       </c>
       <c r="E20">
-        <v>1.039934465908078</v>
+        <v>0.9938399883788678</v>
       </c>
       <c r="F20">
-        <v>1.05841258549433</v>
+        <v>1.005786609103933</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037358171494127</v>
+        <v>1.040284123304936</v>
       </c>
       <c r="J20">
-        <v>1.047831375165456</v>
+        <v>1.012724224489802</v>
       </c>
       <c r="K20">
-        <v>1.054664921902527</v>
+        <v>1.015009560000073</v>
       </c>
       <c r="L20">
-        <v>1.043294318632836</v>
+        <v>1.007992025945919</v>
       </c>
       <c r="M20">
-        <v>1.061709649232788</v>
+        <v>1.019728465435252</v>
       </c>
       <c r="N20">
-        <v>1.019688262437033</v>
+        <v>1.007290126214472</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040246958231887</v>
+        <v>0.9766665983347939</v>
       </c>
       <c r="D21">
-        <v>1.049986643768735</v>
+        <v>0.9938179352479214</v>
       </c>
       <c r="E21">
-        <v>1.038713266390503</v>
+        <v>0.9874107765190342</v>
       </c>
       <c r="F21">
-        <v>1.056982233902398</v>
+        <v>0.9982673263020166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037081735494688</v>
+        <v>1.038219810365318</v>
       </c>
       <c r="J21">
-        <v>1.046802322432367</v>
+        <v>1.007173343674071</v>
       </c>
       <c r="K21">
-        <v>1.053515495197492</v>
+        <v>1.008917382956468</v>
       </c>
       <c r="L21">
-        <v>1.042283335995488</v>
+        <v>1.002634646314341</v>
       </c>
       <c r="M21">
-        <v>1.060485995612565</v>
+        <v>1.01328159923877</v>
       </c>
       <c r="N21">
-        <v>1.019335973089356</v>
+        <v>1.005357508094554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039349635056609</v>
+        <v>0.9715251863082222</v>
       </c>
       <c r="D22">
-        <v>1.049132907466586</v>
+        <v>0.9891744837170842</v>
       </c>
       <c r="E22">
-        <v>1.037945302880993</v>
+        <v>0.9832473275242791</v>
       </c>
       <c r="F22">
-        <v>1.056082734052319</v>
+        <v>0.9933951847592341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036906155954492</v>
+        <v>1.036867913301836</v>
       </c>
       <c r="J22">
-        <v>1.046154258030346</v>
+        <v>1.003568116118844</v>
       </c>
       <c r="K22">
-        <v>1.052791974611749</v>
+        <v>1.004963490480857</v>
       </c>
       <c r="L22">
-        <v>1.041646919212635</v>
+        <v>0.9991581270923727</v>
       </c>
       <c r="M22">
-        <v>1.059715871746943</v>
+        <v>1.009098629730105</v>
       </c>
       <c r="N22">
-        <v>1.019113915395933</v>
+        <v>1.004101879283675</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039825378381005</v>
+        <v>0.9742668556400526</v>
       </c>
       <c r="D23">
-        <v>1.049585512219907</v>
+        <v>0.9916497384860427</v>
       </c>
       <c r="E23">
-        <v>1.038352429475556</v>
+        <v>0.9854664594941328</v>
       </c>
       <c r="F23">
-        <v>1.056559594025403</v>
+        <v>0.9959923299213886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036999402283237</v>
+        <v>1.037589885801957</v>
       </c>
       <c r="J23">
-        <v>1.046497910238512</v>
+        <v>1.005490717248206</v>
       </c>
       <c r="K23">
-        <v>1.053175606048075</v>
+        <v>1.007071756351464</v>
       </c>
       <c r="L23">
-        <v>1.04198436959886</v>
+        <v>1.001011801422447</v>
       </c>
       <c r="M23">
-        <v>1.060124202240098</v>
+        <v>1.011328936653705</v>
       </c>
       <c r="N23">
-        <v>1.019231685610553</v>
+        <v>1.004771516092644</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041697128489467</v>
+        <v>0.9847160804074983</v>
       </c>
       <c r="D24">
-        <v>1.051366880444946</v>
+        <v>1.001101922760555</v>
       </c>
       <c r="E24">
-        <v>1.039954937142327</v>
+        <v>0.9939458334921102</v>
       </c>
       <c r="F24">
-        <v>1.058436562665902</v>
+        <v>1.005910357765988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037362775966514</v>
+        <v>1.040317857151042</v>
       </c>
       <c r="J24">
-        <v>1.047848609592644</v>
+        <v>1.012815436989105</v>
       </c>
       <c r="K24">
-        <v>1.054684178289294</v>
+        <v>1.015109714994811</v>
       </c>
       <c r="L24">
-        <v>1.043311254949775</v>
+        <v>1.008080107831197</v>
       </c>
       <c r="M24">
-        <v>1.061730151174594</v>
+        <v>1.019834469849858</v>
       </c>
       <c r="N24">
-        <v>1.019694159177608</v>
+        <v>1.007321874992008</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043866813676604</v>
+        <v>0.9962027187578781</v>
       </c>
       <c r="D25">
-        <v>1.053433128397861</v>
+        <v>1.011526051850105</v>
       </c>
       <c r="E25">
-        <v>1.041813986601428</v>
+        <v>1.003306578242041</v>
       </c>
       <c r="F25">
-        <v>1.060613984301423</v>
+        <v>1.016849241281693</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037776750314075</v>
+        <v>1.043265915719998</v>
       </c>
       <c r="J25">
-        <v>1.04941148464994</v>
+        <v>1.020858555846045</v>
       </c>
       <c r="K25">
-        <v>1.056431253748177</v>
+        <v>1.023948037352471</v>
       </c>
       <c r="L25">
-        <v>1.044847734810727</v>
+        <v>1.015853779788934</v>
       </c>
       <c r="M25">
-        <v>1.063590519266368</v>
+        <v>1.029191506332808</v>
       </c>
       <c r="N25">
-        <v>1.020228418669272</v>
+        <v>1.010120100676748</v>
       </c>
     </row>
   </sheetData>
